--- a/medicine/Mort/Terrorisme_en_2007/Terrorisme_en_2007.xlsx
+++ b/medicine/Mort/Terrorisme_en_2007/Terrorisme_en_2007.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chronologie du terrorisme
@@ -495,7 +507,7 @@
 2010
 2011
 ►►
-En 2007, la barrière des 10 000 victimes est franchie pour atteindre les 12 586 victimes pour 3 241 attentats[1]. Rien qu'au Pakistan, plus de 760 personnes sont mortes dans des attentats au cours de l'année 2007[2].
+En 2007, la barrière des 10 000 victimes est franchie pour atteindre les 12 586 victimes pour 3 241 attentats. Rien qu'au Pakistan, plus de 760 personnes sont mortes dans des attentats au cours de l'année 2007.
 </t>
         </is>
       </c>
@@ -526,47 +538,356 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-17 janvier, Irak : un double attentat à la bombe près d'une université à Bagdad fait 70 morts[3].
-22 janvier, Irak : un double attentat à la voiture piégée à Bagdad fait 130 morts et 160 blessés[4].
-Février
-3 février, Irak : un attentat au camion piégé à Bagdad faisant 127 morts et 305 blessés[5].
-19 février, Inde et Pakistan : un attentat dans un train fait 66 morts et 50 blessés[6]. (voir l'article Attentat du Samjhauta Express pour plus de détails)
-26 février, Arabie saoudite : Quatre Français Jean-Claude Abescat enseignant Jean-Michel Novella et Jean-Marc Bonnet employés de Schneider Electric et son fils Romain 17 ans abattus dans le désert près de Madâin Sâlih par des activistes d'Al-Qaïda[7].
-Mars
-6 mars, Irak : Un double attentat suicide à Hilla contre des pèlerins chiites fait 90 morts et 150 blessés[8].
-Avril
-11 avril, Algérie : un attentat-suicide à la voiture piégée à Alger faisant 33 morts et 222 blessés[9]. (voir l'article Attentats du 11 avril 2007 à Alger pour plus de détails)
-14 avril, Maroc : double attentat-suicide. Un policier est tué[10].
-14 avril, Irak : un attentat-suicide à Karbala fait 36 morts et 160 blessés[11].
-17 avril, Irak : une série d'attentats à Bagdad fait 200 morts[12].
-Mai
-Juin
-13 juin, Liban : Walid Eido est la septième victime d'une série d'attentats visant des personnalités politiques libanaises qui étaient tous proches de Rafik Hariri qui lui-même fut la première victime de ces attentats à la voiture piégée[13].
-29 juin, Côte d'Ivoire : un attentat visant à tuer Guillaume Soro échoue à l'aéroport de Bouaké, mais fait 4 morts et 11 blessés[14].
-Juillet
-2 juillet, Yémen : un attentat anti-touriste à la voiture piégée à Mareb fait 9 morts et 11 blessés[15].
-7 juillet, Irak : Un attentat au camion piégé au sud de Kirkouk fait 105 morts et 240 blessés[16].
-11 juillet, Algérie : un attentat-suicide devant une caserne militaire à Lakhdaria fait 10 morts et 34 blessés[17].
-17 et 27 juillet, Pakistan : deux attentats-suicide à Islamabad ont fait vingt-sept morts au total[réf. obsolète].
-Août
-14 août, Irak : une série d'attentats-suicides visant les Yézidis à Qahtaniya, dans la ville de Sinjar, font 796 morts et 1 562 blessés. Quatre camions-citernes explosent simultanément[18]. (voir l'article Attentats du 14 août 2007 à Qahtaniya pour plus de détails)
-Septembre
-4 septembre, Pakistan : au moins 24 personnes sont tuées dans deux explosions dans la banlieue de Karachi[réf. obsolète].
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>17 janvier, Irak : un double attentat à la bombe près d'une université à Bagdad fait 70 morts.
+22 janvier, Irak : un double attentat à la voiture piégée à Bagdad fait 130 morts et 160 blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2007</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3 février, Irak : un attentat au camion piégé à Bagdad faisant 127 morts et 305 blessés.
+19 février, Inde et Pakistan : un attentat dans un train fait 66 morts et 50 blessés. (voir l'article Attentat du Samjhauta Express pour plus de détails)
+26 février, Arabie saoudite : Quatre Français Jean-Claude Abescat enseignant Jean-Michel Novella et Jean-Marc Bonnet employés de Schneider Electric et son fils Romain 17 ans abattus dans le désert près de Madâin Sâlih par des activistes d'Al-Qaïda.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2007</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>6 mars, Irak : Un double attentat suicide à Hilla contre des pèlerins chiites fait 90 morts et 150 blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2007</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>11 avril, Algérie : un attentat-suicide à la voiture piégée à Alger faisant 33 morts et 222 blessés. (voir l'article Attentats du 11 avril 2007 à Alger pour plus de détails)
+14 avril, Maroc : double attentat-suicide. Un policier est tué.
+14 avril, Irak : un attentat-suicide à Karbala fait 36 morts et 160 blessés.
+17 avril, Irak : une série d'attentats à Bagdad fait 200 morts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2007</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>13 juin, Liban : Walid Eido est la septième victime d'une série d'attentats visant des personnalités politiques libanaises qui étaient tous proches de Rafik Hariri qui lui-même fut la première victime de ces attentats à la voiture piégée.
+29 juin, Côte d'Ivoire : un attentat visant à tuer Guillaume Soro échoue à l'aéroport de Bouaké, mais fait 4 morts et 11 blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2007</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2 juillet, Yémen : un attentat anti-touriste à la voiture piégée à Mareb fait 9 morts et 11 blessés.
+7 juillet, Irak : Un attentat au camion piégé au sud de Kirkouk fait 105 morts et 240 blessés.
+11 juillet, Algérie : un attentat-suicide devant une caserne militaire à Lakhdaria fait 10 morts et 34 blessés.
+17 et 27 juillet, Pakistan : deux attentats-suicide à Islamabad ont fait vingt-sept morts au total[réf. obsolète].</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2007</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>14 août, Irak : une série d'attentats-suicides visant les Yézidis à Qahtaniya, dans la ville de Sinjar, font 796 morts et 1 562 blessés. Quatre camions-citernes explosent simultanément. (voir l'article Attentats du 14 août 2007 à Qahtaniya pour plus de détails)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2007</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>4 septembre, Pakistan : au moins 24 personnes sont tuées dans deux explosions dans la banlieue de Karachi[réf. obsolète].
 6 septembre, Algérie : vingt-deux personnes sont tuées et plus de cent blessées dans un attentat-suicide visant le cortège du président Abdelaziz Bouteflika à Batna, dans l'est du pays[réf. obsolète].
-8 et 9 septembre, Algérie : deux attentats frappent les villes de Dellys et Batna et font au moins 52 morts et 147 blessés[19]. Ils sont revendiqués par Al-Qaïda.
-19 septembre, Liban : un député de la majorité antisyrienne, Antoine Ghanem, est tué dans un attentat à la voiture piégée près de Beyrouth qui fait au total six morts et 56 blessés[20].
-Octobre
-18 octobre, Pakistan : Benazir Bhutto, de retour au Pakistan après 8 années d'exil, échappe à un attentat-suicide à Karachi, qui fait 139 morts et près de 400 blessés[2]. (voir l'article Attentat du 18 octobre 2007 à Karachi pour plus de détails)
-31 octobre, Russie : un attentat dans un autobus fait 8 morts et 53 blessés à Togliatti[réf. nécessaire].
-Novembre
-Décembre
-6 décembre, France : à 12h50, l'explosion d'un colis piégé visant un cabinet d'avocats, 52 boulevard de Malesherbes à Paris, fait 1 mort et 5 blessés[21].
+8 et 9 septembre, Algérie : deux attentats frappent les villes de Dellys et Batna et font au moins 52 morts et 147 blessés. Ils sont revendiqués par Al-Qaïda.
+19 septembre, Liban : un député de la majorité antisyrienne, Antoine Ghanem, est tué dans un attentat à la voiture piégée près de Beyrouth qui fait au total six morts et 56 blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2007</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2007</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>18 octobre, Pakistan : Benazir Bhutto, de retour au Pakistan après 8 années d'exil, échappe à un attentat-suicide à Karachi, qui fait 139 morts et près de 400 blessés. (voir l'article Attentat du 18 octobre 2007 à Karachi pour plus de détails)
+31 octobre, Russie : un attentat dans un autobus fait 8 morts et 53 blessés à Togliatti[réf. nécessaire].</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2007</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2007</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>6 décembre, France : à 12h50, l'explosion d'un colis piégé visant un cabinet d'avocats, 52 boulevard de Malesherbes à Paris, fait 1 mort et 5 blessés.
 6 décembre, Sri Lanka : un attentat dans un autobus fait quinze morts et trente-huit blessés[réf. nécessaire].
-11 décembre, Algérie : attentat faisant 67 morts et des centaines de blessés[22]  (revendiqué par le groupe Al-Qaïda au Maghreb). (voir l'article Attentats du 11 décembre 2007 à Alger pour plus de détails)
-21 décembre, Pakistan : le jour de l'Aïd al-Adha, un kamikaze se fait exploser dans une mosquée du nord-ouest du pays, faisant au moins 54 victimes[2].
-24 décembre, Mauritanie : 4 touristes français Gérard Tollet 60 ans, ses neveux Jean-Philippe 47 ans et Didier Tollet 38 ans et leur ami Adda Hacène 33 ans agent immobilier, sont tués dans la région d'Aleg[23].
-27 décembre, Pakistan : un attentat contre Benazir Bhutto ex-Premier ministre du pays à Rawalpindi, fait 21 morts dont Benazir Bhutto[24].</t>
+11 décembre, Algérie : attentat faisant 67 morts et des centaines de blessés  (revendiqué par le groupe Al-Qaïda au Maghreb). (voir l'article Attentats du 11 décembre 2007 à Alger pour plus de détails)
+21 décembre, Pakistan : le jour de l'Aïd al-Adha, un kamikaze se fait exploser dans une mosquée du nord-ouest du pays, faisant au moins 54 victimes.
+24 décembre, Mauritanie : 4 touristes français Gérard Tollet 60 ans, ses neveux Jean-Philippe 47 ans et Didier Tollet 38 ans et leur ami Adda Hacène 33 ans agent immobilier, sont tués dans la région d'Aleg.
+27 décembre, Pakistan : un attentat contre Benazir Bhutto ex-Premier ministre du pays à Rawalpindi, fait 21 morts dont Benazir Bhutto.</t>
         </is>
       </c>
     </row>
